--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76065969-C4C6-4406-9436-B58D94B667D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8CA564-1716-4360-B55A-A1F1F9C0CDF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,11 @@
     <sheet name="LawlinkCompany" sheetId="5" r:id="rId4"/>
     <sheet name="LawlinkDirector" sheetId="2" r:id="rId5"/>
     <sheet name="LawlinkWatchlist" sheetId="6" r:id="rId6"/>
+    <sheet name="CIDLinksCheck" sheetId="7" r:id="rId7"/>
+    <sheet name="LawlinkLinksCheck" sheetId="8" r:id="rId8"/>
+    <sheet name="CID3in1Company" sheetId="9" r:id="rId9"/>
+    <sheet name="CID3in1JudgmentBankrupt" sheetId="10" r:id="rId10"/>
+    <sheet name="CID3in1ISI" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
   <si>
     <t>santest1</t>
   </si>
@@ -64,6 +69,90 @@
   </si>
   <si>
     <t>COLIN MICHAEL CLARK</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>welsh</t>
+  </si>
+  <si>
+    <t>kelly</t>
+  </si>
+  <si>
+    <t>roy</t>
+  </si>
+  <si>
+    <t>macmillan</t>
+  </si>
+  <si>
+    <t>sara</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>niel</t>
+  </si>
+  <si>
+    <t>kamp</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>alukka</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>tony</t>
+  </si>
+  <si>
+    <t>blair</t>
+  </si>
+  <si>
+    <t>marshal</t>
+  </si>
+  <si>
+    <t>keive</t>
+  </si>
+  <si>
+    <t>laura</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>mevin</t>
+  </si>
+  <si>
+    <t>terry</t>
+  </si>
+  <si>
+    <t>samba</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>potter</t>
+  </si>
+  <si>
+    <t>makhom</t>
   </si>
 </sst>
 </file>
@@ -384,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U1" sqref="E1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,12 +561,176 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B89362-2B1A-4A0D-B7CE-256DF0DA59CB}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDC3293-8535-4311-A288-FAAF5BF7D17D}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40037B92-8231-4568-A2BB-D8ACA631EA53}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +822,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A459A42E-2FAE-4FFC-9592-557D62ADCDC2}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -906,4 +1159,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837BF82-598A-4C3B-9C10-102C65D6B11D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191683BC-92CA-409D-9527-2F8FECAC9D8D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D775EEE-2EAF-4970-BC39-A8CF10BFC1A0}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V5" sqref="F1:V1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>172234</v>
+      </c>
+      <c r="D1">
+        <v>145433</v>
+      </c>
+      <c r="E1">
+        <v>22342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>132245</v>
+      </c>
+      <c r="D2">
+        <v>28765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>173456</v>
+      </c>
+      <c r="D3">
+        <v>28876</v>
+      </c>
+      <c r="E3">
+        <v>334567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>143567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>147566</v>
+      </c>
+      <c r="D5">
+        <v>37877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8CA564-1716-4360-B55A-A1F1F9C0CDF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D9869-6EF0-4014-8947-EA163959B7E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V5" sqref="F1:V1048576"/>
+      <selection activeCell="V1" sqref="F1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D9869-6EF0-4014-8947-EA163959B7E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90A901-8127-4220-A3F2-872CAF293355}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90A901-8127-4220-A3F2-872CAF293355}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8DFA5-5DF5-48F2-948F-122F6B0580B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CID3in1Company" sheetId="9" r:id="rId9"/>
     <sheet name="CID3in1JudgmentBankrupt" sheetId="10" r:id="rId10"/>
     <sheet name="CID3in1ISI" sheetId="11" r:id="rId11"/>
+    <sheet name="CIDSupportLink" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>santest1</t>
   </si>
@@ -153,16 +154,51 @@
   </si>
   <si>
     <t>makhom</t>
+  </si>
+  <si>
+    <t>santhosh.tn@gmail.com</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>Please send the services offered</t>
+  </si>
+  <si>
+    <t>santhoshtn_80@rediffmail.com</t>
+  </si>
+  <si>
+    <t>tnsanthosh@gmail.com</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>Please send the legal formalities offered</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>Please send the items offered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,14 +221,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDC3293-8535-4311-A288-FAAF5BF7D17D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -721,6 +760,64 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA6B01-D065-4BF4-85FA-695EFF10D339}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{BE877E8B-529E-4E30-8AF7-F6DE1FDE1C48}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{21B24D23-4B6D-4531-9258-CC2B2E2FE302}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{7C921914-8479-44AC-84FD-DF3F47CD7730}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1283,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D775EEE-2EAF-4970-BC39-A8CF10BFC1A0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="V1" sqref="F1:V1048576"/>
     </sheetView>
   </sheetViews>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8DFA5-5DF5-48F2-948F-122F6B0580B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CEBB73-9E41-4418-95EC-2978BDF03D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -31,35 +31,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
-  <si>
-    <t>santest1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
   <si>
-    <t>santest2</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B62693 LIMITED</t>
   </si>
   <si>
-    <t>santest3</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B43665 LIMITED</t>
   </si>
   <si>
-    <t>santest4</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B40061 LIMITED</t>
   </si>
   <si>
-    <t>santest5</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B39875 LIMITED</t>
   </si>
   <si>
@@ -181,6 +166,12 @@
   </si>
   <si>
     <t>Please send the items offered</t>
+  </si>
+  <si>
+    <t>sanuat9</t>
+  </si>
+  <si>
+    <t>santest6</t>
   </si>
 </sst>
 </file>
@@ -516,79 +507,79 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1">
         <v>172234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>132245</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>173456</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>143567</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>147566</v>
@@ -608,77 +599,78 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -686,81 +678,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDC3293-8535-4311-A288-FAAF5BF7D17D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -768,48 +761,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA6B01-D065-4BF4-85FA-695EFF10D339}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -819,6 +812,7 @@
     <hyperlink ref="A3" r:id="rId3" xr:uid="{7C921914-8479-44AC-84FD-DF3F47CD7730}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -827,82 +821,82 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1">
         <v>172234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>132245</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>173456</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>143567</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>147566</v>
@@ -922,23 +916,23 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1">
         <v>172234</v>
@@ -950,15 +944,15 @@
         <v>182893</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>132245</v>
@@ -967,15 +961,15 @@
         <v>144345</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>173456</v>
@@ -987,29 +981,29 @@
         <v>154534</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>143567</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>147566</v>
@@ -1026,82 +1020,82 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1">
         <v>172234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>132245</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>173456</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>143567</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>147566</v>
@@ -1118,51 +1112,52 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1171,82 +1166,82 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1">
         <v>172234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>132245</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>173456</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>143567</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>147566</v>
@@ -1263,57 +1258,58 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1322,57 +1318,58 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1380,21 +1377,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D775EEE-2EAF-4970-BC39-A8CF10BFC1A0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V1" sqref="F1:V1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C1">
         <v>172234</v>
@@ -1406,12 +1403,12 @@
         <v>22342</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>132245</v>
@@ -1420,12 +1417,12 @@
         <v>28765</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>173456</v>
@@ -1437,23 +1434,23 @@
         <v>334567</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>143567</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>147566</v>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CEBB73-9E41-4418-95EC-2978BDF03D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D0B1FF-9A94-44A3-998B-ED457A10DE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="CID3in1JudgmentBankrupt" sheetId="10" r:id="rId10"/>
     <sheet name="CID3in1ISI" sheetId="11" r:id="rId11"/>
     <sheet name="CIDSupportLink" sheetId="12" r:id="rId12"/>
+    <sheet name="LawlinkSubmissionNumber" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="47">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
@@ -168,10 +169,10 @@
     <t>Please send the items offered</t>
   </si>
   <si>
-    <t>sanuat9</t>
-  </si>
-  <si>
     <t>santest6</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -517,10 +518,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -531,10 +532,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -545,10 +546,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -559,10 +560,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -573,10 +574,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -761,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA6B01-D065-4BF4-85FA-695EFF10D339}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -816,9 +817,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40037B92-8231-4568-A2BB-D8ACA631EA53}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA73E2-1462-45EA-ACBD-76FCEC3DA122}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B5"/>
@@ -832,74 +833,196 @@
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>172234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1918994</v>
+      </c>
+      <c r="E1">
+        <v>11702552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>132245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2006686</v>
+      </c>
+      <c r="E2">
+        <v>16577161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>173456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2514484</v>
+      </c>
+      <c r="E3">
+        <v>438966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>143567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2514484</v>
+      </c>
+      <c r="E4">
+        <v>12463394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>147566</v>
+        <v>2514487</v>
+      </c>
+      <c r="E5">
+        <v>13898333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40037B92-8231-4568-A2BB-D8ACA631EA53}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>123108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>192234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>473446</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>685971</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>682378</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -926,10 +1049,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -946,10 +1069,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -963,10 +1086,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -983,10 +1106,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -997,10 +1120,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1017,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4E050A-EFED-4E6A-917D-A171D7DC592E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,7 +1154,7 @@
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1042,10 +1165,13 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>172234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1056,10 +1182,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>132245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>192234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1070,10 +1199,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>173456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>473446</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1084,10 +1216,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>143567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685971</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1098,7 +1233,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>147566</v>
+        <v>682378</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1262,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1135,10 +1273,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1146,10 +1284,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1179,10 +1317,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1193,10 +1331,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1207,10 +1345,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1221,10 +1359,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1235,10 +1373,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1269,42 +1407,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1329,42 +1467,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1526,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1">
         <v>172234</v>
@@ -1405,10 +1543,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>132245</v>
@@ -1419,10 +1557,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>173456</v>
@@ -1436,10 +1574,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>143567</v>
@@ -1447,10 +1585,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>147566</v>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D0B1FF-9A94-44A3-998B-ED457A10DE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A31510-67A6-4C1E-8E66-8329BF4ABDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
     <sheet name="CIDCompany" sheetId="3" r:id="rId2"/>
     <sheet name="CIDWatchlist" sheetId="4" r:id="rId3"/>
     <sheet name="LawlinkCompany" sheetId="5" r:id="rId4"/>
-    <sheet name="LawlinkDirector" sheetId="2" r:id="rId5"/>
+    <sheet name="LawlinkCIDDirector" sheetId="2" r:id="rId5"/>
     <sheet name="LawlinkWatchlist" sheetId="6" r:id="rId6"/>
     <sheet name="CIDLinksCheck" sheetId="7" r:id="rId7"/>
     <sheet name="LawlinkLinksCheck" sheetId="8" r:id="rId8"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="51">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
@@ -173,13 +173,25 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>sanuat9</t>
+  </si>
+  <si>
+    <t>testref1</t>
+  </si>
+  <si>
+    <t>testref3</t>
+  </si>
+  <si>
+    <t>myreff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +203,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -822,6 +840,113 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1918994</v>
+      </c>
+      <c r="E1">
+        <v>11702552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2006686</v>
+      </c>
+      <c r="E2">
+        <v>16577161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2514484</v>
+      </c>
+      <c r="E3">
+        <v>438966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2514484</v>
+      </c>
+      <c r="E4">
+        <v>12463394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2514487</v>
+      </c>
+      <c r="E5">
+        <v>13898333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40037B92-8231-4568-A2BB-D8ACA631EA53}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
@@ -835,185 +960,78 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>1918994</v>
-      </c>
-      <c r="E1">
-        <v>11702552</v>
+        <v>123108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2006686</v>
-      </c>
-      <c r="E2">
-        <v>16577161</v>
+        <v>192234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2514484</v>
-      </c>
-      <c r="E3">
-        <v>438966</v>
+        <v>473446</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>2514484</v>
-      </c>
-      <c r="E4">
-        <v>12463394</v>
+        <v>685971</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2514487</v>
-      </c>
-      <c r="E5">
-        <v>13898333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40037B92-8231-4568-A2BB-D8ACA631EA53}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>123108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>192234</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>473446</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>685971</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1143,7 +1161,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,10 +1174,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1173,10 +1191,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1190,10 +1208,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1207,10 +1225,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1224,10 +1242,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1247,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1278,7 @@
     <col min="3" max="3" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1270,8 +1288,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1281,8 +1302,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1292,8 +1316,12 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A31510-67A6-4C1E-8E66-8329BF4ABDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1A916-9C8B-4565-A1D7-6FE7C244BFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>myreff</t>
+  </si>
+  <si>
+    <t>Accept Charge €3.50</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +537,7 @@
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -547,8 +550,11 @@
       <c r="D1">
         <v>172234</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -561,8 +567,11 @@
       <c r="D2">
         <v>132245</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -575,8 +584,11 @@
       <c r="D3">
         <v>173456</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -589,8 +601,11 @@
       <c r="D4" s="1">
         <v>143567</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -602,6 +617,9 @@
       </c>
       <c r="D5" s="1">
         <v>147566</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA73E2-1462-45EA-ACBD-76FCEC3DA122}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +965,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,10 +978,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -977,10 +995,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -994,10 +1012,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1011,10 +1029,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1028,10 +1046,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1267,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1A916-9C8B-4565-A1D7-6FE7C244BFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DD3A4-F62A-44BF-AEBB-EED6E90CA350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA73E2-1462-45EA-ACBD-76FCEC3DA122}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,10 +1298,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DD3A4-F62A-44BF-AEBB-EED6E90CA350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A2CCB8-AB4F-4879-92E5-A4402E51505E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
@@ -169,15 +169,9 @@
     <t>Please send the items offered</t>
   </si>
   <si>
-    <t>santest6</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>sanuat9</t>
-  </si>
-  <si>
     <t>testref1</t>
   </si>
   <si>
@@ -188,6 +182,9 @@
   </si>
   <si>
     <t>Accept Charge €3.50</t>
+  </si>
+  <si>
+    <t>santest1</t>
   </si>
 </sst>
 </file>
@@ -526,7 +523,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,10 +536,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -551,15 +548,15 @@
         <v>172234</v>
       </c>
       <c r="U1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -568,15 +565,15 @@
         <v>132245</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -585,15 +582,15 @@
         <v>173456</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -602,15 +599,15 @@
         <v>143567</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -619,7 +616,7 @@
         <v>147566</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -857,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA73E2-1462-45EA-ACBD-76FCEC3DA122}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,10 +868,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -888,10 +885,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -905,10 +902,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -922,10 +919,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -939,10 +936,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -965,7 +962,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,10 +975,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -990,15 +987,15 @@
         <v>123108</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1007,15 +1004,15 @@
         <v>192234</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1024,15 +1021,15 @@
         <v>473446</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1041,15 +1038,15 @@
         <v>685971</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1058,7 +1055,7 @@
         <v>682378</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1085,10 +1082,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1105,10 +1102,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1122,10 +1119,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1142,10 +1139,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1156,10 +1153,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1179,7 +1176,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,10 +1189,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1204,15 +1201,15 @@
         <v>123108</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1221,15 +1218,15 @@
         <v>192234</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1238,15 +1235,15 @@
         <v>473446</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1255,15 +1252,15 @@
         <v>685971</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1272,7 +1269,7 @@
         <v>682378</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -1298,44 +1295,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1363,10 +1360,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1377,10 +1374,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1391,10 +1388,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1405,10 +1402,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1419,10 +1416,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1453,42 +1450,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1513,42 +1510,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1569,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1">
         <v>172234</v>
@@ -1589,10 +1586,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>132245</v>
@@ -1603,10 +1600,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>173456</v>
@@ -1620,10 +1617,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>143567</v>
@@ -1631,10 +1628,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>147566</v>
